--- a/medicine/Sexualité et sexologie/Wokefishing/Wokefishing.xlsx
+++ b/medicine/Sexualité et sexologie/Wokefishing/Wokefishing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le wokefishing (en français : pêche aux éveillés) est un terme inventé par la journaliste britannique Serena Smith, pour décrire une situation dans laquelle une personne se présente comme progressiste, ouverte d’esprit, antiraciste, féministe, sexo-positive, engagée contre l’homophobie, alors qu’elle ne l’est pas vraiment, voire que ces sujets ne l'intéressent pas ou qu'elle en est un opposant politique, pour draguer une autre personne[1],[2],[3],[4].
-Le terme résulte de l'association des mots woke et fishing[5]. 
-En effet, les idées politiques semblent rester un critère essentiel pour envisager une relation amoureuse. Un sondage Ifop réalisé en 2017 à la demande du réseau social libertin Wyylde avait affirmé que 47 % des Français ont eu une majorité de partenaires sexuels du même bord politique qu’eux et que 85 % des personnes sondées estiment qu’ils partageaient déjà les idées de leur conjoint avant de se mettre ensemble. De plus, les trois quarts des personnes en couple se disaient du « même bord politique » que leur conjoint[4],[6],[7],[8].[pertinence contestée]
-Un sondage Ifop publié le 05 avril 2022 affirme que le « wokefishing » est pratiqué en moyenne par près d’un Français  sur dix en France métropolitaine (11%) et affirme même que le wokefishing est lui aussi une pratique très genrée car la proportion de personnes reconnaissant s’être fait passer pour quelqu’un de progressiste (ex : féministe, sympathisant LGBT, antiraciste…) se montre trois fois plus forte dans la gent masculine (16%) que féminine (6%)[9].
-Des experts en rencontres amoureuses ont mis en garde dans le Daily Mail contre la tendance du wokefishing qui a connu un véritable essor pendant la pandémie de Covid-19 et ont déclaré que ce genre de relations est dès le départ «voué» à l'échec[10].
+Le wokefishing (en français : pêche aux éveillés) est un terme inventé par la journaliste britannique Serena Smith, pour décrire une situation dans laquelle une personne se présente comme progressiste, ouverte d’esprit, antiraciste, féministe, sexo-positive, engagée contre l’homophobie, alors qu’elle ne l’est pas vraiment, voire que ces sujets ne l'intéressent pas ou qu'elle en est un opposant politique, pour draguer une autre personne.
+Le terme résulte de l'association des mots woke et fishing. 
+En effet, les idées politiques semblent rester un critère essentiel pour envisager une relation amoureuse. Un sondage Ifop réalisé en 2017 à la demande du réseau social libertin Wyylde avait affirmé que 47 % des Français ont eu une majorité de partenaires sexuels du même bord politique qu’eux et que 85 % des personnes sondées estiment qu’ils partageaient déjà les idées de leur conjoint avant de se mettre ensemble. De plus, les trois quarts des personnes en couple se disaient du « même bord politique » que leur conjoint.[pertinence contestée]
+Un sondage Ifop publié le 05 avril 2022 affirme que le « wokefishing » est pratiqué en moyenne par près d’un Français  sur dix en France métropolitaine (11%) et affirme même que le wokefishing est lui aussi une pratique très genrée car la proportion de personnes reconnaissant s’être fait passer pour quelqu’un de progressiste (ex : féministe, sympathisant LGBT, antiraciste…) se montre trois fois plus forte dans la gent masculine (16%) que féminine (6%).
+Des experts en rencontres amoureuses ont mis en garde dans le Daily Mail contre la tendance du wokefishing qui a connu un véritable essor pendant la pandémie de Covid-19 et ont déclaré que ce genre de relations est dès le départ «voué» à l'échec.
 Sur les autres projets Wikimedia :
 Wokefishing, sur le Wiktionnaire
 </t>
